--- a/data/prizes.xlsx
+++ b/data/prizes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>奖品名</t>
   </si>
@@ -209,6 +209,15 @@
       </rPr>
       <t>萬</t>
     </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>等级</t>
   </si>
 </sst>
 </file>
@@ -265,10 +274,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,152 +562,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="40.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.75" customHeight="1">
+    <row r="1" spans="1:3" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
